--- a/activity.xlsx
+++ b/activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\all\code\python\python_410\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E112A61A-D8FD-4EC4-BE11-2372E8BE1DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9D628-3BB1-478E-A9F5-81BC967F9D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E41229A-973A-468D-A388-F37A34455638}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>کوروش بهشتی</t>
   </si>
@@ -88,13 +88,34 @@
   </si>
   <si>
     <t>نام و نام خانوادگی</t>
+  </si>
+  <si>
+    <t>تمرین 2</t>
+  </si>
+  <si>
+    <t>2\2</t>
+  </si>
+  <si>
+    <t>1\2</t>
+  </si>
+  <si>
+    <t>0.5\2</t>
+  </si>
+  <si>
+    <t>1.5\2</t>
+  </si>
+  <si>
+    <t>مثبت</t>
+  </si>
+  <si>
+    <t>مثبت : فعالیت کلاسی + کدنویسی تمیز و کامل (0.25)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +159,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -177,7 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,14 +224,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -523,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB91EB2-782A-48FB-821D-5161F4344BCC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,140 +567,228 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A12:F13"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:B1"/>
@@ -680,6 +801,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\all\code\python\python_410\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9D628-3BB1-478E-A9F5-81BC967F9D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD5825A-9946-45DE-8D3D-F805F793F506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E41229A-973A-468D-A388-F37A34455638}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>کوروش بهشتی</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>مثبت : فعالیت کلاسی + کدنویسی تمیز و کامل (0.25)</t>
+  </si>
+  <si>
+    <t>تمرین 3</t>
+  </si>
+  <si>
+    <t>3\3</t>
+  </si>
+  <si>
+    <t>2\3</t>
+  </si>
+  <si>
+    <t>جلسه 5</t>
+  </si>
+  <si>
+    <t>3.5\3</t>
+  </si>
+  <si>
+    <t>5\3</t>
   </si>
 </sst>
 </file>
@@ -204,7 +222,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,23 +239,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -556,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB91EB2-782A-48FB-821D-5161F4344BCC}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,11 +591,11 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
@@ -584,50 +608,62 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6">
-        <v>2</v>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11">
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6">
-        <v>2</v>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11">
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -638,31 +674,43 @@
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6">
+      <c r="B5" s="10"/>
+      <c r="C5" s="13">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6">
+      <c r="B6" s="10"/>
+      <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -674,14 +722,17 @@
       <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6">
-        <v>0</v>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12">
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -692,32 +743,41 @@
       <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6">
-        <v>1</v>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
@@ -728,14 +788,20 @@
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6">
-        <v>1</v>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
@@ -746,13 +812,19 @@
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -764,27 +836,30 @@
       <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/activity.xlsx
+++ b/activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\all\code\python\python_410\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD5825A-9946-45DE-8D3D-F805F793F506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF600E-A4F7-471B-BD86-EE91A564FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E41229A-973A-468D-A388-F37A34455638}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>کوروش بهشتی</t>
   </si>
@@ -51,30 +51,15 @@
     <t>تمرین 1</t>
   </si>
   <si>
-    <t>4\5</t>
-  </si>
-  <si>
-    <t>3.75\5</t>
-  </si>
-  <si>
     <t>سامیار اکبری وند</t>
   </si>
   <si>
     <t>ریحانه پازوکی</t>
   </si>
   <si>
-    <t>0.75\5</t>
-  </si>
-  <si>
-    <t>1.5\5</t>
-  </si>
-  <si>
     <t>تارا مومنی</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5\5</t>
-  </si>
-  <si>
     <t>جلسه 3</t>
   </si>
   <si>
@@ -93,57 +78,32 @@
     <t>تمرین 2</t>
   </si>
   <si>
-    <t>2\2</t>
-  </si>
-  <si>
-    <t>1\2</t>
-  </si>
-  <si>
-    <t>0.5\2</t>
-  </si>
-  <si>
-    <t>1.5\2</t>
-  </si>
-  <si>
-    <t>مثبت</t>
-  </si>
-  <si>
     <t>مثبت : فعالیت کلاسی + کدنویسی تمیز و کامل (0.25)</t>
   </si>
   <si>
     <t>تمرین 3</t>
   </si>
   <si>
-    <t>3\3</t>
-  </si>
-  <si>
-    <t>2\3</t>
-  </si>
-  <si>
     <t>جلسه 5</t>
   </si>
   <si>
-    <t>3.5\3</t>
-  </si>
-  <si>
-    <t>5\3</t>
+    <t>غ</t>
+  </si>
+  <si>
+    <t>امتیازی</t>
+  </si>
+  <si>
+    <t>تمرین 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,8 +143,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +198,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,57 +213,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -580,304 +576,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB91EB2-782A-48FB-821D-5161F4344BCC}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11">
-        <v>7</v>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="E7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
-        <v>1</v>
+      <c r="B11" s="4">
+        <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A12:F13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
+    <sortCondition ref="M1:M14"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A12:E13"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>